--- a/biology/Médecine/Micro-éveil/Micro-éveil.xlsx
+++ b/biology/Médecine/Micro-éveil/Micro-éveil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Micro-%C3%A9veil</t>
+          <t>Micro-éveil</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un micro-réveil ou micro-éveil est induit par l’augmentation de l’effort respiratoire et non par la diminution de la saturation en oxygène. Il n'existe pas de consensus sur la durée les définissant, le seuil le plus courant étant supérieur à 3 secondes. On parle alors micro-fragmentation du sommeil. Les micro-réveils sont la plupart du temps invisibles par le patient qui ne s'en souvient pas lorsqu'il se réveille.
 Ils peuvent être dus à l'apnée du sommeil. 
